--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.021120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.021120.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5023,12 +5023,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6081,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6337,12 +6337,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6845,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7055,12 +7055,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7689,12 +7689,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8575,12 +8575,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8617,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8743,12 +8743,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9247,12 +9247,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9457,12 +9457,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9499,12 +9499,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9541,12 +9541,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9583,12 +9583,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9751,12 +9751,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10003,12 +10003,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10087,12 +10087,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10171,12 +10171,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10633,12 +10633,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12275,12 +12275,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12443,12 +12443,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12569,12 +12569,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12611,12 +12611,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12947,12 +12947,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13577,12 +13577,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13787,12 +13787,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13829,12 +13829,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13955,12 +13955,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14123,12 +14123,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14627,12 +14627,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15047,12 +15047,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15089,12 +15089,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15131,12 +15131,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15215,12 +15215,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15257,12 +15257,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15299,12 +15299,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16685,12 +16685,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17105,12 +17105,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17487,12 +17487,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17571,12 +17571,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17953,12 +17953,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -18163,12 +18163,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18289,12 +18289,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18923,12 +18923,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19137,12 +19137,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19389,12 +19389,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19851,12 +19851,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20611,12 +20611,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22131,12 +22131,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22425,12 +22425,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22635,12 +22635,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22677,12 +22677,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22929,12 +22929,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22971,12 +22971,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23475,12 +23475,12 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23643,12 +23643,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23983,12 +23983,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24155,12 +24155,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24575,12 +24575,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24785,12 +24785,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24869,12 +24869,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24911,12 +24911,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24995,12 +24995,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25583,12 +25583,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25877,12 +25877,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26343,12 +26343,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26511,12 +26511,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26553,12 +26553,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27015,12 +27015,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27607,12 +27607,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27985,12 +27985,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28241,12 +28241,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29131,12 +29131,12 @@
       <c r="H681" t="inlineStr"/>
       <c r="I681" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30201,12 +30201,12 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30243,12 +30243,12 @@
       <c r="H707" t="inlineStr"/>
       <c r="I707" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30499,12 +30499,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30881,12 +30881,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31641,12 +31641,12 @@
       <c r="H740" t="inlineStr"/>
       <c r="I740" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32103,12 +32103,12 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32523,12 +32523,12 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32607,12 +32607,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32817,12 +32817,12 @@
       <c r="H768" t="inlineStr"/>
       <c r="I768" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32943,12 +32943,12 @@
       <c r="H771" t="inlineStr"/>
       <c r="I771" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33153,12 +33153,12 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33615,12 +33615,12 @@
       <c r="H787" t="inlineStr"/>
       <c r="I787" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33993,12 +33993,12 @@
       <c r="H796" t="inlineStr"/>
       <c r="I796" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34245,12 +34245,12 @@
       <c r="H802" t="inlineStr"/>
       <c r="I802" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35467,12 +35467,12 @@
       <c r="H831" t="inlineStr"/>
       <c r="I831" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35677,12 +35677,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35971,12 +35971,12 @@
       <c r="H843" t="inlineStr"/>
       <c r="I843" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36223,12 +36223,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36265,12 +36265,12 @@
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36307,12 +36307,12 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36349,12 +36349,12 @@
       <c r="H852" t="inlineStr"/>
       <c r="I852" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36601,12 +36601,12 @@
       <c r="H858" t="inlineStr"/>
       <c r="I858" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37189,12 +37189,12 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38327,12 +38327,12 @@
       <c r="H899" t="inlineStr"/>
       <c r="I899" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38709,12 +38709,12 @@
       <c r="H908" t="inlineStr"/>
       <c r="I908" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39175,12 +39175,12 @@
       <c r="H919" t="inlineStr"/>
       <c r="I919" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39301,12 +39301,12 @@
       <c r="H922" t="inlineStr"/>
       <c r="I922" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39427,12 +39427,12 @@
       <c r="H925" t="inlineStr"/>
       <c r="I925" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39679,12 +39679,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40099,12 +40099,12 @@
       <c r="H941" t="inlineStr"/>
       <c r="I941" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -40519,12 +40519,12 @@
       <c r="H951" t="inlineStr"/>
       <c r="I951" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -40775,12 +40775,12 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40817,12 +40817,12 @@
       <c r="H958" t="inlineStr"/>
       <c r="I958" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41279,12 +41279,12 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41825,12 +41825,12 @@
       <c r="H982" t="inlineStr"/>
       <c r="I982" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42119,12 +42119,12 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42203,12 +42203,12 @@
       <c r="H991" t="inlineStr"/>
       <c r="I991" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42245,12 +42245,12 @@
       <c r="H992" t="inlineStr"/>
       <c r="I992" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
